--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2288426.629155606</v>
+        <v>-2290992.786756694</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10950070.6023198</v>
+        <v>10904920.67769361</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15559824.88234903</v>
+        <v>15567621.25759513</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>365.9974114868649</v>
+        <v>361.2862175540978</v>
       </c>
       <c r="C11" t="n">
-        <v>348.5364615943919</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.9466114440673</v>
+        <v>126.9245529759738</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1396155650958</v>
+        <v>385.4284216323287</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8112725963383</v>
+        <v>390.1000786635713</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.5709284530226</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>229.5976260190793</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>352.9946705018534</v>
+        <v>348.2834765690863</v>
       </c>
       <c r="Y11" t="n">
-        <v>295.5555732252192</v>
+        <v>364.7903145466709</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>158.3843560725546</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.1678489088296</v>
       </c>
       <c r="E13" t="n">
-        <v>129.6975324699535</v>
+        <v>124.9863385371864</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.84951099150101</v>
+        <v>144.8589759354215</v>
       </c>
       <c r="H13" t="n">
-        <v>130.5150789785132</v>
+        <v>125.8038850457461</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.34897109451785</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>80.1099483101909</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.2148362523547</v>
       </c>
       <c r="T13" t="n">
-        <v>204.0122658205963</v>
+        <v>26.73628844710953</v>
       </c>
       <c r="U13" t="n">
-        <v>269.4907239445849</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.4012131472123</v>
+        <v>230.6900192144453</v>
       </c>
       <c r="W13" t="n">
-        <v>269.7865681599753</v>
+        <v>265.0753742272083</v>
       </c>
       <c r="X13" t="n">
-        <v>208.9732252124215</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8482231754791</v>
+        <v>197.1370292427121</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>13.91332762480547</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>77.12881875749886</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136064</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007086</v>
+        <v>15.2374885509907</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>181.5197273600712</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279486</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.1472599538323</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010736</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482625</v>
+        <v>58.94921653542657</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>42.20693826439388</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>92.0843051033369</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136064</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253485</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007084</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115151</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>153.310451730797</v>
+        <v>104.7626408488398</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420299</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>272.046380450364</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279486</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383229</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010735</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846416</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482624</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2257,7 +2257,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>42.20693826439404</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>103.2971938439375</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136064</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007084</v>
+        <v>15.2374885509907</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420299</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>251.556248489308</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X23" t="n">
-        <v>272.046380450364</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279486</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383229</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052283</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E25" t="n">
-        <v>92.28848050112497</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482624</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>74.53585620438527</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480642</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
-        <v>154.452923095723</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239898</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.7855516119913</v>
+        <v>310.2311925356781</v>
       </c>
       <c r="C26" t="n">
-        <v>284.3246017195182</v>
+        <v>292.7702426432052</v>
       </c>
       <c r="D26" t="n">
-        <v>273.7347515691936</v>
+        <v>282.1803924928805</v>
       </c>
       <c r="E26" t="n">
-        <v>300.9820800207725</v>
+        <v>309.4277209444593</v>
       </c>
       <c r="F26" t="n">
-        <v>325.9277556902221</v>
+        <v>334.373396613909</v>
       </c>
       <c r="G26" t="n">
-        <v>329.9734356019641</v>
+        <v>338.419076525651</v>
       </c>
       <c r="H26" t="n">
-        <v>213.6594743358311</v>
+        <v>222.105115259518</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2394717366865</v>
+        <v>36.68511266037343</v>
       </c>
       <c r="T26" t="n">
-        <v>122.9696800881308</v>
+        <v>131.4153210118178</v>
       </c>
       <c r="U26" t="n">
-        <v>170.0468819074126</v>
+        <v>178.4925228310996</v>
       </c>
       <c r="V26" t="n">
-        <v>246.8039684186456</v>
+        <v>255.2496093423325</v>
       </c>
       <c r="W26" t="n">
-        <v>268.2926786659237</v>
+        <v>276.7383195896106</v>
       </c>
       <c r="X26" t="n">
-        <v>288.7828106269797</v>
+        <v>297.2284515506666</v>
       </c>
       <c r="Y26" t="n">
-        <v>305.2896486045643</v>
+        <v>313.7352895282512</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.88369013044796</v>
+        <v>107.3293310541349</v>
       </c>
       <c r="C28" t="n">
-        <v>86.2985310471385</v>
+        <v>134.8617209191223</v>
       </c>
       <c r="D28" t="n">
-        <v>67.66718296672302</v>
+        <v>76.11282389040994</v>
       </c>
       <c r="E28" t="n">
-        <v>65.48567259507983</v>
+        <v>73.93131351876676</v>
       </c>
       <c r="F28" t="n">
-        <v>64.47275797144191</v>
+        <v>72.91839889512883</v>
       </c>
       <c r="G28" t="n">
-        <v>85.07751820753889</v>
+        <v>93.52315913122581</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>72.25236578651837</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>23.8497712820357</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.983862618558007</v>
+        <v>16.42950354224493</v>
       </c>
       <c r="S28" t="n">
-        <v>108.8207352799526</v>
+        <v>117.2663762036395</v>
       </c>
       <c r="T28" t="n">
-        <v>138.6006592246799</v>
+        <v>147.0463001483668</v>
       </c>
       <c r="U28" t="n">
-        <v>218.6147717784325</v>
+        <v>213.7091890778104</v>
       </c>
       <c r="V28" t="n">
-        <v>171.1893532723387</v>
+        <v>179.6349941960256</v>
       </c>
       <c r="W28" t="n">
-        <v>205.5747082851017</v>
+        <v>214.0203492087886</v>
       </c>
       <c r="X28" t="n">
-        <v>144.7613653375478</v>
+        <v>153.2070062612347</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.6363633006055</v>
+        <v>146.0820042242924</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>332.0242580539681</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>314.5633081614951</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>303.9734580111705</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>331.2207864627493</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>356.166462132199</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>360.212142043941</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>243.898180777808</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.47817817866341</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>153.2083865301077</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>200.2855883493895</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>277.0426748606225</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>298.5313851079006</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>319.0215170689566</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>335.5283550465412</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.1223965724249</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>116.5372374891154</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>97.90588940869992</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>95.72437903705674</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>94.71146441341881</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>115.3162246495158</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>94.04543130480835</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>45.64283680032568</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.22256906053491</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
-        <v>139.0594417219295</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>168.8393656666568</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>235.5022545961004</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>201.4280597143156</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>235.8134147270786</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>175.0000717795247</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.8750697425824</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>332.0242580539681</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>314.5633081614951</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>303.9734580111705</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>331.2207864627493</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>356.1664621321989</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>360.212142043941</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>243.898180777808</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.47817817866334</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>153.2083865301076</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>200.2855883493895</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>277.0426748606224</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>298.5313851079005</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>319.0215170689565</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>335.5283550465411</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.1223965724248</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>116.5372374891153</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>97.90588940869986</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>95.72437903705668</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>94.71146441341875</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
-        <v>115.3162246495157</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>94.04543130480829</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>45.6428368003256</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.22256906053484</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
-        <v>139.0594417219294</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>168.8393656666567</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>235.5022545961004</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
-        <v>201.4280597143155</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>235.8134147270785</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>175.0000717795247</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.8750697425823</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>135.6235431859972</v>
+        <v>143.0438109257888</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>98.69583361727746</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>174.1560346887826</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G43" t="n">
-        <v>111.8803261135834</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>165.4034671307248</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>89.2772329506097</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>135.6235431859972</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1537.543717072946</v>
+        <v>1245.210404471938</v>
       </c>
       <c r="C11" t="n">
-        <v>1185.486685159419</v>
+        <v>1245.210404471938</v>
       </c>
       <c r="D11" t="n">
-        <v>844.1264715795528</v>
+        <v>1117.003785304289</v>
       </c>
       <c r="E11" t="n">
-        <v>844.1264715795528</v>
+        <v>1117.003785304289</v>
       </c>
       <c r="F11" t="n">
-        <v>450.0460518168297</v>
+        <v>727.6821472918353</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>333.6416637932786</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J11" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5054,37 +5054,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>2330.422534441489</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400155</v>
+        <v>2330.422534441489</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400155</v>
+        <v>2330.422534441489</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.77905516596</v>
+        <v>1978.621042957563</v>
       </c>
       <c r="Y11" t="n">
-        <v>1907.238072110183</v>
+        <v>1610.145977758906</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J12" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L12" t="n">
-        <v>717.8525085495379</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M12" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.864164601822</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434119</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S12" t="n">
         <v>2426.617474780096</v>
@@ -5151,16 +5151,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.4509506487789</v>
+        <v>663.5356951757825</v>
       </c>
       <c r="C13" t="n">
-        <v>365.4509506487789</v>
+        <v>663.5356951757825</v>
       </c>
       <c r="D13" t="n">
-        <v>365.4509506487789</v>
+        <v>535.083322540601</v>
       </c>
       <c r="E13" t="n">
-        <v>234.4433420932702</v>
+        <v>408.8344957353622</v>
       </c>
       <c r="F13" t="n">
-        <v>234.4433420932702</v>
+        <v>408.8344957353622</v>
       </c>
       <c r="G13" t="n">
-        <v>183.0801996776124</v>
+        <v>262.512297820795</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800311</v>
+        <v>135.4376664614555</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J13" t="n">
-        <v>93.2850254279715</v>
+        <v>97.9491074214109</v>
       </c>
       <c r="K13" t="n">
-        <v>281.5446030517466</v>
+        <v>290.8727670386254</v>
       </c>
       <c r="L13" t="n">
-        <v>573.3448475938719</v>
+        <v>587.3370935741899</v>
       </c>
       <c r="M13" t="n">
-        <v>890.4957242090568</v>
+        <v>909.1520521828141</v>
       </c>
       <c r="N13" t="n">
-        <v>1205.93405362007</v>
+        <v>1229.254463587267</v>
       </c>
       <c r="O13" t="n">
-        <v>1482.540962248132</v>
+        <v>1510.525454208768</v>
       </c>
       <c r="P13" t="n">
-        <v>1698.096643294971</v>
+        <v>1730.745217249046</v>
       </c>
       <c r="Q13" t="n">
-        <v>1768.998647073294</v>
+        <v>1806.311303020809</v>
       </c>
       <c r="R13" t="n">
-        <v>1768.998647073294</v>
+        <v>1725.392163313545</v>
       </c>
       <c r="S13" t="n">
-        <v>1768.998647073294</v>
+        <v>1550.42768225056</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.925651294913</v>
+        <v>1523.421330283783</v>
       </c>
       <c r="U13" t="n">
-        <v>1290.712798825636</v>
+        <v>1523.421330283783</v>
       </c>
       <c r="V13" t="n">
-        <v>1052.933795646633</v>
+        <v>1290.40110885505</v>
       </c>
       <c r="W13" t="n">
-        <v>780.4221106365572</v>
+        <v>1022.648205595244</v>
       </c>
       <c r="X13" t="n">
-        <v>569.3380447654245</v>
+        <v>1022.648205595244</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.4509506487789</v>
+        <v>823.5198932288679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718742</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>669.0385698131965</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>330.6999501630256</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
         <v>3262.764786084339</v>
@@ -5309,19 +5309,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3026.328773681787</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3026.328773681787</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5419,28 +5419,28 @@
         <v>535.3126933611979</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328083</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,7 +5455,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
         <v>2256.956805813346</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1733.774944536555</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1459.71169349229</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070898</v>
+        <v>1196.345260781686</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464974</v>
+        <v>905.4562740795886</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>589.3696351861277</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495728</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
         <v>66.5121164321834</v>
@@ -5513,25 +5513,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710109</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668174</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515854</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2857.151466523096</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>740.9069705127577</v>
+        <v>719.5705984225548</v>
       </c>
       <c r="C19" t="n">
-        <v>571.9707875848508</v>
+        <v>645.5336813907945</v>
       </c>
       <c r="D19" t="n">
-        <v>520.5255827463585</v>
+        <v>590.3163078746054</v>
       </c>
       <c r="E19" t="n">
-        <v>471.2839237378088</v>
+        <v>442.4032142922123</v>
       </c>
       <c r="F19" t="n">
-        <v>423.0654108137419</v>
+        <v>382.8585511251147</v>
       </c>
       <c r="G19" t="n">
-        <v>255.3625741884609</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>109.1453874063186</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.5121164321834</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1834.280098489162</v>
+        <v>1740.677472568993</v>
       </c>
       <c r="T19" t="n">
-        <v>1612.513483058688</v>
+        <v>1613.810123034666</v>
       </c>
       <c r="U19" t="n">
-        <v>1422.082050758175</v>
+        <v>1419.606522056456</v>
       </c>
       <c r="V19" t="n">
-        <v>1266.068997126132</v>
+        <v>1259.821299746716</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.323261663014</v>
+        <v>1065.303395605902</v>
       </c>
       <c r="X19" t="n">
-        <v>946.0051453388405</v>
+        <v>932.2131106040314</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.8840007691539</v>
+        <v>806.3197973566479</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103805</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070898</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464977</v>
+        <v>905.4562740795873</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307336</v>
+        <v>589.3696351861264</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495728</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,28 +5774,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710108</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515854</v>
+        <v>3093.315087970519</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746127</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960652</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.2355359389144</v>
+        <v>712.0166168572209</v>
       </c>
       <c r="C22" t="n">
-        <v>571.9707875848509</v>
+        <v>543.080433929314</v>
       </c>
       <c r="D22" t="n">
-        <v>520.5255827463586</v>
+        <v>487.8630604131249</v>
       </c>
       <c r="E22" t="n">
-        <v>471.2839237378089</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>423.0654108137421</v>
+        <v>382.8585511251147</v>
       </c>
       <c r="G22" t="n">
-        <v>255.362574188461</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>109.1453874063188</v>
+        <v>68.93852771769146</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1733.12349100366</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1606.256141469332</v>
       </c>
       <c r="U22" t="n">
-        <v>1323.410616184332</v>
+        <v>1412.052540491122</v>
       </c>
       <c r="V22" t="n">
-        <v>1167.397562552288</v>
+        <v>1252.267318181382</v>
       </c>
       <c r="W22" t="n">
-        <v>976.6518270891711</v>
+        <v>1057.749414040568</v>
       </c>
       <c r="X22" t="n">
-        <v>847.3337107649972</v>
+        <v>924.6591290386975</v>
       </c>
       <c r="Y22" t="n">
-        <v>725.2125661953106</v>
+        <v>798.765815791314</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1734.852707015896</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103805</v>
+        <v>1460.789455971631</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1197.423023261027</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464974</v>
+        <v>906.5340365589295</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>590.4473976654685</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495728</v>
+        <v>270.2742134066116</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>256.4690098705507</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>590.2883835603971</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1041.322596808806</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1574.85450148073</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2121.633318539512</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2624.605789418849</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3019.380155776027</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3267.666517531709</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3379.493945576267</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3364.102542999509</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3253.024061279878</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515854</v>
+        <v>3094.392850449861</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2858.229229002437</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2600.35983962847</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2321.793347263536</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>2026.553281183871</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6216169604505</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1685876793235</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2341780180723</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9967230126168</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4621650395018</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>177.0990648721199</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>86.59717050998742</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>161.2671484021426</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>399.5313473824897</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>766.229507695155</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1687.028876471925</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.99015588998</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2408.489747366083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>839.5784050866012</v>
+        <v>620.6802863520751</v>
       </c>
       <c r="C25" t="n">
-        <v>769.3136567325377</v>
+        <v>546.6433693203148</v>
       </c>
       <c r="D25" t="n">
-        <v>619.1970173202019</v>
+        <v>491.4259958041257</v>
       </c>
       <c r="E25" t="n">
-        <v>525.9763299453282</v>
+        <v>438.4121681178792</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>386.4214865161155</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>311.1327428753223</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>164.91555609318</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>112.7125113584609</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>316.6996943073372</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>633.2594927558333</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>977.4165383553823</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1318.824915061247</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>1618.15451398166</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>1850.76201441532</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="S25" t="n">
-        <v>1834.280098489162</v>
+        <v>1736.68642639466</v>
       </c>
       <c r="T25" t="n">
-        <v>1711.184917632532</v>
+        <v>1609.819076860333</v>
       </c>
       <c r="U25" t="n">
-        <v>1520.753485332018</v>
+        <v>1415.615475882123</v>
       </c>
       <c r="V25" t="n">
-        <v>1364.740431699975</v>
+        <v>1255.830253572383</v>
       </c>
       <c r="W25" t="n">
-        <v>1173.994696236858</v>
+        <v>966.4130835354224</v>
       </c>
       <c r="X25" t="n">
-        <v>1044.676579912684</v>
+        <v>833.3227985335517</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.5554353429974</v>
+        <v>707.4294852861682</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1817.404981210791</v>
+        <v>1871.028098186581</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.208413817338</v>
+        <v>1575.300580365161</v>
       </c>
       <c r="D26" t="n">
-        <v>1253.708664757546</v>
+        <v>1290.269880877403</v>
       </c>
       <c r="E26" t="n">
-        <v>949.6863617062611</v>
+        <v>977.7166273981511</v>
       </c>
       <c r="F26" t="n">
-        <v>620.4664064636124</v>
+        <v>639.9657217275359</v>
       </c>
       <c r="G26" t="n">
-        <v>287.1599058555672</v>
+        <v>298.1282706915242</v>
       </c>
       <c r="H26" t="n">
-        <v>71.34225501129328</v>
+        <v>73.77966941928374</v>
       </c>
       <c r="I26" t="n">
-        <v>71.34225501129328</v>
+        <v>73.77966941928374</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2213859703187</v>
+        <v>262.6588003783091</v>
       </c>
       <c r="K26" t="n">
-        <v>594.0407596601651</v>
+        <v>596.4781740681556</v>
       </c>
       <c r="L26" t="n">
-        <v>1045.074972908574</v>
+        <v>1403.62248368448</v>
       </c>
       <c r="M26" t="n">
-        <v>1815.283667956882</v>
+        <v>1937.154388356405</v>
       </c>
       <c r="N26" t="n">
-        <v>2362.062485015664</v>
+        <v>2483.933205415187</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.034955895001</v>
+        <v>2986.905676294524</v>
       </c>
       <c r="P26" t="n">
-        <v>3259.809322252179</v>
+        <v>3381.680042651702</v>
       </c>
       <c r="Q26" t="n">
-        <v>3508.095684007861</v>
+        <v>3629.966404407384</v>
       </c>
       <c r="R26" t="n">
-        <v>3567.112750564664</v>
+        <v>3688.983470964186</v>
       </c>
       <c r="S26" t="n">
-        <v>3538.588031638717</v>
+        <v>3651.927801610274</v>
       </c>
       <c r="T26" t="n">
-        <v>3414.376233569898</v>
+        <v>3519.185053113488</v>
       </c>
       <c r="U26" t="n">
-        <v>3242.611706390694</v>
+        <v>3338.889575506317</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.314768594082</v>
+        <v>3081.061687281739</v>
       </c>
       <c r="W26" t="n">
-        <v>2722.312062870927</v>
+        <v>2801.528031130617</v>
       </c>
       <c r="X26" t="n">
-        <v>2430.612254156807</v>
+        <v>2501.29727198853</v>
       </c>
       <c r="Y26" t="n">
-        <v>2122.238871727954</v>
+        <v>2184.39293913171</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>946.3739930602186</v>
+        <v>948.811407468209</v>
       </c>
       <c r="C27" t="n">
-        <v>771.9209637790916</v>
+        <v>774.3583781870821</v>
       </c>
       <c r="D27" t="n">
-        <v>622.9865541178403</v>
+        <v>625.4239685258308</v>
       </c>
       <c r="E27" t="n">
-        <v>463.7490991123848</v>
+        <v>466.1865135203752</v>
       </c>
       <c r="F27" t="n">
-        <v>317.2145411392697</v>
+        <v>319.6519555472602</v>
       </c>
       <c r="G27" t="n">
-        <v>180.8514409718878</v>
+        <v>183.2888553798783</v>
       </c>
       <c r="H27" t="n">
-        <v>90.34954660975535</v>
+        <v>92.7869610177458</v>
       </c>
       <c r="I27" t="n">
-        <v>71.34225501129328</v>
+        <v>73.77966941928374</v>
       </c>
       <c r="J27" t="n">
-        <v>165.0195245019106</v>
+        <v>167.456938909901</v>
       </c>
       <c r="K27" t="n">
-        <v>403.2837234822576</v>
+        <v>405.7211378902481</v>
       </c>
       <c r="L27" t="n">
-        <v>769.9818837949229</v>
+        <v>772.4192982029133</v>
       </c>
       <c r="M27" t="n">
-        <v>1217.258209017239</v>
+        <v>1219.695623425229</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.781252571693</v>
+        <v>1693.218666979684</v>
       </c>
       <c r="O27" t="n">
-        <v>2101.742531989748</v>
+        <v>2104.179946397738</v>
       </c>
       <c r="P27" t="n">
-        <v>2412.24212346585</v>
+        <v>2414.679537873841</v>
       </c>
       <c r="Q27" t="n">
-        <v>2569.88368111245</v>
+        <v>2572.32109552044</v>
       </c>
       <c r="R27" t="n">
-        <v>2569.739327704966</v>
+        <v>2572.176742112957</v>
       </c>
       <c r="S27" t="n">
-        <v>2440.301441198446</v>
+        <v>2442.738855606437</v>
       </c>
       <c r="T27" t="n">
-        <v>2247.658440876302</v>
+        <v>2250.095855284292</v>
       </c>
       <c r="U27" t="n">
-        <v>2019.590594010717</v>
+        <v>2022.028008418708</v>
       </c>
       <c r="V27" t="n">
-        <v>1784.438485778975</v>
+        <v>1786.875900186965</v>
       </c>
       <c r="W27" t="n">
-        <v>1530.201129050773</v>
+        <v>1532.638543458764</v>
       </c>
       <c r="X27" t="n">
-        <v>1322.34962884524</v>
+        <v>1324.787043253231</v>
       </c>
       <c r="Y27" t="n">
-        <v>1114.589330080287</v>
+        <v>1117.026744488277</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>687.6140712861227</v>
+        <v>626.7590163114128</v>
       </c>
       <c r="C28" t="n">
-        <v>600.4438379051747</v>
+        <v>490.5350557870468</v>
       </c>
       <c r="D28" t="n">
-        <v>532.0931480397979</v>
+        <v>413.6534154937034</v>
       </c>
       <c r="E28" t="n">
-        <v>465.9460040043637</v>
+        <v>338.9753210303027</v>
       </c>
       <c r="F28" t="n">
-        <v>400.8220060534123</v>
+        <v>265.3203726513847</v>
       </c>
       <c r="G28" t="n">
-        <v>314.8851189750902</v>
+        <v>170.8525351450959</v>
       </c>
       <c r="H28" t="n">
-        <v>168.6679321929479</v>
+        <v>97.87034748194606</v>
       </c>
       <c r="I28" t="n">
-        <v>71.34225501129328</v>
+        <v>73.77966941928374</v>
       </c>
       <c r="J28" t="n">
-        <v>116.4648874582288</v>
+        <v>118.9023018662193</v>
       </c>
       <c r="K28" t="n">
-        <v>320.4520704071051</v>
+        <v>322.8894848150956</v>
       </c>
       <c r="L28" t="n">
-        <v>637.0118688556013</v>
+        <v>639.4492832635917</v>
       </c>
       <c r="M28" t="n">
-        <v>981.1689144551502</v>
+        <v>983.6063288631407</v>
       </c>
       <c r="N28" t="n">
-        <v>1322.577291161015</v>
+        <v>1325.014705569005</v>
       </c>
       <c r="O28" t="n">
-        <v>1621.906890081428</v>
+        <v>1624.344304489419</v>
       </c>
       <c r="P28" t="n">
-        <v>1854.514390515087</v>
+        <v>1856.951804923078</v>
       </c>
       <c r="Q28" t="n">
-        <v>1932.124686667602</v>
+        <v>1934.562101075593</v>
       </c>
       <c r="R28" t="n">
-        <v>1924.060178972089</v>
+        <v>1917.966642952113</v>
       </c>
       <c r="S28" t="n">
-        <v>1814.140244345874</v>
+        <v>1799.515757897932</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.139578462359</v>
+        <v>1650.98414158645</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.316576665963</v>
+        <v>1435.116273831086</v>
       </c>
       <c r="V28" t="n">
-        <v>1280.398038007035</v>
+        <v>1253.666784744191</v>
       </c>
       <c r="W28" t="n">
-        <v>1072.746817517033</v>
+        <v>1037.484613826223</v>
       </c>
       <c r="X28" t="n">
-        <v>926.5232161659746</v>
+        <v>882.7300620471979</v>
       </c>
       <c r="Y28" t="n">
-        <v>787.4965865694035</v>
+        <v>735.1724820226601</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2009.396768143977</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1691.656052829336</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.612155848355</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1050.045704875881</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>690.2816017120435</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>326.4309531828098</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>268.9482853763726</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>602.767659066219</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1053.801872314628</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2032.352175144456</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2798.40745531836</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3301.379926197697</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3696.154292554875</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3944.440654310557</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4003.45772086736</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3944.388854020225</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3789.632908030218</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3587.324232929825</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3307.483147212024</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3005.93629356768</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2683.69233693237</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2344.774806582329</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>955.1008924662725</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>780.6478631851455</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>631.7134535238943</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>472.4759985184387</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>325.9414405453236</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>189.5783403779417</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>99.07644601580927</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>173.7464239079645</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>412.0106228883116</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>778.7087832009768</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
-        <v>1225.985108423293</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1699.508151977747</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>2110.469431395802</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2420.969022871905</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2578.610580518504</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2578.466227111021</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2449.0283406045</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2256.385340282356</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
-        <v>2028.317493416771</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1793.165385185029</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1538.928028456827</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1331.076528251294</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
-        <v>1123.31622948634</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>746.6181070465802</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C31" t="n">
-        <v>628.9037257444435</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D31" t="n">
-        <v>530.0088879578778</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E31" t="n">
-        <v>433.3175960012549</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>337.6494501291147</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>221.1684151296038</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>126.1730299732317</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>175.3942746377001</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>379.3814575865764</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>746.1437438084897</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1140.503277181456</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.114141660738</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1841.917197116751</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2124.727185323828</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2252.539969249759</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2213.931313633057</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2073.467231085654</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1902.92241728095</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1665.041352032364</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1461.578665452247</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1223.383297041057</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1046.61554776881</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.0447702510498</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2009.396768143976</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1691.656052829335</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1384.612155848355</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1050.045704875881</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>690.2816017120432</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>326.4309531828098</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>268.9482853763727</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>602.7676590662192</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1053.801872314628</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1818.655183091713</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2798.40745531836</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3301.379926197697</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3696.154292554875</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3944.440654310557</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4003.45772086736</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3944.388854020225</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3789.632908030217</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3587.324232929824</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3307.483147212023</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3005.936293567679</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2683.692336932369</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2344.774806582328</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>955.1008924662729</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>780.6478631851459</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>631.7134535238947</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>472.4759985184392</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>325.9414405453242</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>189.5783403779425</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>99.07644601581008</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>173.7464239079648</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>412.0106228883118</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>778.7087832009772</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
-        <v>1225.985108423293</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1699.508151977748</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.469431395803</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2420.969022871906</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2578.610580518506</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2578.466227111021</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2449.028340604501</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2256.385340282357</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2028.317493416772</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1793.165385185029</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1538.928028456828</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1331.076528251295</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1123.316229486341</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>746.6181070465798</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>628.903725744443</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>530.0088879578775</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>433.3175960012546</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>337.6494501291145</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>221.1684151296037</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>126.1730299732316</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>80.06915441734721</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>175.3942746377001</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>429.5839453599939</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>756.6172003440884</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1150.976733717055</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1492.385110422919</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1841.91719711675</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2124.727185323827</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2252.539969249759</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2213.931313633057</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2073.467231085654</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1902.92241728095</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1665.041352032363</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1461.578665452247</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1223.383297041056</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1046.615547768809</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.0447702510493</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6938,7 +6938,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6965,13 +6965,13 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049856</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>795.5993767202773</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>725.3346283662138</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>673.8894235277214</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>525.9763299453283</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>379.0863824474179</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1790.301070122839</v>
+        <v>1692.975392941183</v>
       </c>
       <c r="T37" t="n">
-        <v>1667.205889266208</v>
+        <v>1471.208777510709</v>
       </c>
       <c r="U37" t="n">
-        <v>1476.774456965695</v>
+        <v>1182.105910636353</v>
       </c>
       <c r="V37" t="n">
-        <v>1320.761403333652</v>
+        <v>1026.092857004309</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.015667870534</v>
+        <v>835.3471215411921</v>
       </c>
       <c r="X37" t="n">
-        <v>1000.69755154636</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.5764069766736</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702854</v>
+        <v>598.2565075725903</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8117649162219</v>
+        <v>527.9917592185268</v>
       </c>
       <c r="D40" t="n">
-        <v>529.3665600777296</v>
+        <v>476.5465543800345</v>
       </c>
       <c r="E40" t="n">
-        <v>480.1249010691798</v>
+        <v>427.3048953714848</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7360,22 +7360,22 @@
         <v>1744.44964124669</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816216</v>
+        <v>1568.534454692364</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1279.431587818008</v>
       </c>
       <c r="V40" t="n">
-        <v>1176.23853988366</v>
+        <v>1123.418534185964</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205425</v>
+        <v>932.6727987228471</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963685</v>
+        <v>803.3546823986732</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0535435266818</v>
+        <v>681.2335378289865</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464964</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389139</v>
+        <v>598.2565075725903</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848504</v>
+        <v>527.9917592185268</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463581</v>
+        <v>476.5465543800345</v>
       </c>
       <c r="E43" t="n">
-        <v>471.2839237378083</v>
+        <v>427.3048953714848</v>
       </c>
       <c r="F43" t="n">
-        <v>423.0654108137413</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959804</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1568.534454692364</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1378.103022391851</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1222.089968759808</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>1031.344233296691</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>902.0261169725167</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691537</v>
+        <v>681.2335378289865</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>795.5993767202774</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C46" t="n">
-        <v>725.3346283662139</v>
+        <v>670.6422221586943</v>
       </c>
       <c r="D46" t="n">
-        <v>673.8894235277215</v>
+        <v>619.197017320202</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191718</v>
+        <v>471.2839237378089</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212614</v>
+        <v>324.3939762398985</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959804</v>
+        <v>156.6911396146175</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1790.301070122839</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1667.205889266208</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.774456965695</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.761403333652</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.015667870534</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>1000.697551546361</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.5764069766738</v>
+        <v>922.5554353429974</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>131.3266008502576</v>
+        <v>128.6367404422062</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5735032339022</v>
+        <v>141.5420997566118</v>
       </c>
       <c r="L8" t="n">
-        <v>143.3222963241395</v>
+        <v>138.3209838294803</v>
       </c>
       <c r="M8" t="n">
-        <v>127.4843391590395</v>
+        <v>121.9194153589805</v>
       </c>
       <c r="N8" t="n">
-        <v>124.8867565435343</v>
+        <v>119.2317864584416</v>
       </c>
       <c r="O8" t="n">
-        <v>131.3969836885905</v>
+        <v>126.0571557933099</v>
       </c>
       <c r="P8" t="n">
-        <v>146.9937814186809</v>
+        <v>142.4363618513435</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.0455481358326</v>
+        <v>155.623115839157</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>97.2251500083148</v>
+        <v>95.62308757666794</v>
       </c>
       <c r="K9" t="n">
-        <v>87.22899975934848</v>
+        <v>84.49081989091421</v>
       </c>
       <c r="L9" t="n">
-        <v>70.49970929235224</v>
+        <v>66.81788854685861</v>
       </c>
       <c r="M9" t="n">
-        <v>62.71744339451317</v>
+        <v>58.42093224478756</v>
       </c>
       <c r="N9" t="n">
-        <v>49.82320071600547</v>
+        <v>45.41297370081458</v>
       </c>
       <c r="O9" t="n">
-        <v>68.02273247723703</v>
+        <v>63.98823636612113</v>
       </c>
       <c r="P9" t="n">
-        <v>74.12258954369636</v>
+        <v>70.88455072706569</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.97241887202618</v>
+        <v>97.80787567483709</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>98.48403492067779</v>
+        <v>96.83237564880253</v>
       </c>
       <c r="L10" t="n">
-        <v>95.81778136510596</v>
+        <v>93.7042261434903</v>
       </c>
       <c r="M10" t="n">
-        <v>97.73522084140049</v>
+        <v>95.50677320251589</v>
       </c>
       <c r="N10" t="n">
-        <v>87.47440088425876</v>
+        <v>85.29894074940145</v>
       </c>
       <c r="O10" t="n">
-        <v>101.3150389926263</v>
+        <v>99.30564944965948</v>
       </c>
       <c r="P10" t="n">
-        <v>105.9470348694837</v>
+        <v>104.2276549827052</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.94186588374782</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.34379948258091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>359.7071680484002</v>
       </c>
       <c r="M26" t="n">
-        <v>239.0674650266506</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>221.4913768839619</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>233.657985964809</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R41" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.71693444084614</v>
+        <v>14.68524195161299</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>343.8252676616248</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>206.3108645353265</v>
       </c>
       <c r="E11" t="n">
-        <v>365.1939398956461</v>
+        <v>360.4827459628791</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>284.2821223857897</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.9734824958548</v>
+        <v>44.26228856308776</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.7157852221787</v>
+        <v>102.0045912894116</v>
       </c>
       <c r="T11" t="n">
-        <v>189.9217548036181</v>
+        <v>185.210560870851</v>
       </c>
       <c r="U11" t="n">
-        <v>234.3088199518465</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>311.0158282935192</v>
+        <v>306.3046343607522</v>
       </c>
       <c r="W11" t="n">
-        <v>332.5045385407973</v>
+        <v>327.7933446080303</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>73.94593525421868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.0955500053216</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>150.5103909220122</v>
+        <v>145.7991969892451</v>
       </c>
       <c r="D13" t="n">
-        <v>131.8790428415967</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>128.6846178463156</v>
+        <v>123.9734239135485</v>
       </c>
       <c r="G13" t="n">
-        <v>98.72065887668751</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.0601650272849</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.82114224295795</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>177.9260301851218</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.5647834407197</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>264.7795300118179</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>204.2620312796544</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>345.9875814983134</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>126.8912165828105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>52.28225787287857</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>52.28225787287701</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1407439.785046246</v>
+        <v>1405089.087065156</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1068933.05098694</v>
+        <v>1082454.371675172</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1347611.643259732</v>
+        <v>1340848.933203875</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1347611.643259732</v>
+        <v>1340848.933203875</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1347611.643259732</v>
+        <v>1349947.034801079</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1358078.016878598</v>
+        <v>1363359.623076891</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1376988.238236028</v>
+        <v>1379323.629777375</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1376988.238236028</v>
+        <v>1379323.629777375</v>
       </c>
     </row>
     <row r="13">
@@ -26317,19 +26317,19 @@
         <v>102409.5423396298</v>
       </c>
       <c r="D2" t="n">
-        <v>102415.371080219</v>
+        <v>102415.6864204869</v>
       </c>
       <c r="E2" t="n">
-        <v>80187.84948110108</v>
+        <v>81227.95107250346</v>
       </c>
       <c r="F2" t="n">
-        <v>95566.37623623027</v>
+        <v>95566.37623623031</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330354</v>
+        <v>102110.0127672003</v>
       </c>
       <c r="H2" t="n">
-        <v>102630.2212330354</v>
+        <v>102110.0127672003</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330354</v>
@@ -26338,7 +26338,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330353</v>
@@ -26347,10 +26347,10 @@
         <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330354</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>124795.3760734363</v>
+        <v>131546.9215776218</v>
       </c>
       <c r="E3" t="n">
-        <v>838013.5267728476</v>
+        <v>835448.8489883768</v>
       </c>
       <c r="F3" t="n">
-        <v>201946.5094125042</v>
+        <v>198177.5542662904</v>
       </c>
       <c r="G3" t="n">
-        <v>40567.66688760993</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3582.495953363558</v>
       </c>
       <c r="J3" t="n">
-        <v>15797.20972990776</v>
+        <v>20244.0193451492</v>
       </c>
       <c r="K3" t="n">
-        <v>28075.30807921609</v>
+        <v>23701.171859561</v>
       </c>
       <c r="L3" t="n">
-        <v>40567.66688760998</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>154985.5606178476</v>
+        <v>154615.8341993094</v>
       </c>
       <c r="N3" t="n">
-        <v>46736.14309555111</v>
+        <v>46736.143095551</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>413954.9178218744</v>
+        <v>411296.0502990753</v>
       </c>
       <c r="E4" t="n">
-        <v>43925.75094234059</v>
+        <v>48686.62782488207</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866014</v>
+        <v>61265.27723866013</v>
       </c>
       <c r="G4" t="n">
-        <v>93403.78684820636</v>
+        <v>91028.44393036213</v>
       </c>
       <c r="H4" t="n">
+        <v>91028.4439303621</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93370.20472136771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>93177.33631676077</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93063.75099226082</v>
+      </c>
+      <c r="L4" t="n">
+        <v>93063.75099226082</v>
+      </c>
+      <c r="M4" t="n">
         <v>93403.78684820639</v>
       </c>
-      <c r="I4" t="n">
-        <v>93403.78684820642</v>
-      </c>
-      <c r="J4" t="n">
-        <v>93253.28399667758</v>
-      </c>
-      <c r="K4" t="n">
-        <v>93078.51962334476</v>
-      </c>
-      <c r="L4" t="n">
-        <v>93078.51962334472</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93403.78684820636</v>
-      </c>
       <c r="N4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="O4" t="n">
         <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36804.2636211002</v>
+        <v>36976.12406708923</v>
       </c>
       <c r="E5" t="n">
-        <v>60717.18738836262</v>
+        <v>61113.25275109641</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624984</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624984</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
+        <v>83023.74556647007</v>
+      </c>
+      <c r="J5" t="n">
+        <v>85924.90604111475</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="M5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="J5" t="n">
-        <v>84782.48767785545</v>
-      </c>
-      <c r="K5" t="n">
-        <v>88872.79341458587</v>
-      </c>
-      <c r="L5" t="n">
-        <v>88872.79341458587</v>
-      </c>
-      <c r="M5" t="n">
-        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394368.78876248</v>
+        <v>-394373.2023403481</v>
       </c>
       <c r="C6" t="n">
-        <v>-394368.7887624799</v>
+        <v>-394373.2023403481</v>
       </c>
       <c r="D6" t="n">
-        <v>-473139.186436192</v>
+        <v>-477407.7002195505</v>
       </c>
       <c r="E6" t="n">
-        <v>-862468.6156224498</v>
+        <v>-864448.8238950624</v>
       </c>
       <c r="F6" t="n">
-        <v>-245900.9037367158</v>
+        <v>-242273.2254904381</v>
       </c>
       <c r="G6" t="n">
-        <v>-113859.8298090307</v>
+        <v>-108713.5907095228</v>
       </c>
       <c r="H6" t="n">
-        <v>-73292.16292142081</v>
+        <v>-71133.48141464869</v>
       </c>
       <c r="I6" t="n">
-        <v>-73292.16292142084</v>
+        <v>-77346.22500816594</v>
       </c>
       <c r="J6" t="n">
-        <v>-91202.76017140537</v>
+        <v>-96716.04046998937</v>
       </c>
       <c r="K6" t="n">
-        <v>-107396.3998841115</v>
+        <v>-103512.6432935926</v>
       </c>
       <c r="L6" t="n">
-        <v>-119888.7586925053</v>
+        <v>-117391.5807289057</v>
       </c>
       <c r="M6" t="n">
-        <v>-228277.7235392684</v>
+        <v>-227907.9971207302</v>
       </c>
       <c r="N6" t="n">
-        <v>-120028.3060169719</v>
+        <v>-120028.3060169718</v>
       </c>
       <c r="O6" t="n">
+        <v>-73292.16292142076</v>
+      </c>
+      <c r="P6" t="n">
         <v>-73292.16292142082</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-73292.16292142075</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="F2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93.95027323718514</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.95027323718514</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93.95027323718514</v>
+      </c>
+      <c r="J2" t="n">
+        <v>72.50264912780241</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="G2" t="n">
-        <v>97.68472022810499</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>46.97513661859262</v>
+      </c>
+      <c r="M2" t="n">
+        <v>97.68472022810502</v>
+      </c>
+      <c r="N2" t="n">
         <v>97.68472022810501</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>97.68472022810501</v>
       </c>
-      <c r="J2" t="n">
-        <v>80.94829005148934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>50.70958360951243</v>
-      </c>
-      <c r="L2" t="n">
-        <v>50.7095836095125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.7185147293673</v>
+        <v>153.6020214261115</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>844.8734863940667</v>
       </c>
       <c r="J4" t="n">
-        <v>891.7781876411659</v>
+        <v>922.2458677410466</v>
       </c>
       <c r="K4" t="n">
-        <v>1000.86443021684</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1000.86443021684</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="F2" t="n">
-        <v>30.23870644197691</v>
+        <v>25.52751250920983</v>
       </c>
       <c r="G2" t="n">
-        <v>50.70958360951241</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951248</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859245</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.7185147293673</v>
+        <v>153.6020214261115</v>
       </c>
       <c r="E3" t="n">
-        <v>788.3463773881721</v>
+        <v>780.4628706914277</v>
       </c>
       <c r="F3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="F4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.47203099177409</v>
       </c>
       <c r="J4" t="n">
-        <v>60.37673223887327</v>
+        <v>77.37238134697986</v>
       </c>
       <c r="K4" t="n">
-        <v>109.0862425756741</v>
+        <v>92.09059346756783</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>471.1218572854915</v>
+        <v>457.6498262937172</v>
       </c>
       <c r="N4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="K2" t="n">
-        <v>30.23870644197691</v>
+        <v>25.52751250920983</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951241</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.4754463812058</v>
+        <v>333.1508756758469</v>
       </c>
       <c r="I8" t="n">
-        <v>187.8917165488826</v>
+        <v>186.6698918577218</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>113.0711655758487</v>
+        <v>111.0803622490573</v>
       </c>
       <c r="S8" t="n">
-        <v>195.6710820308867</v>
+        <v>194.9488894324865</v>
       </c>
       <c r="T8" t="n">
-        <v>220.5314966064316</v>
+        <v>220.3927627348135</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2987886618934</v>
+        <v>251.2962532627547</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0300848862456</v>
+        <v>137.0131279095771</v>
       </c>
       <c r="H9" t="n">
-        <v>109.2083482984392</v>
+        <v>109.0445796027201</v>
       </c>
       <c r="I9" t="n">
-        <v>78.60521454362703</v>
+        <v>78.02138881183984</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>80.69753892142687</v>
+        <v>79.64471891388808</v>
       </c>
       <c r="S9" t="n">
-        <v>165.8613040295089</v>
+        <v>165.5463356251625</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9013766661774</v>
+        <v>198.8330281505707</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9207615364377</v>
+        <v>225.9196459458674</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7282082663238</v>
+        <v>167.7139921067067</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8908986155491</v>
+        <v>159.7645040327718</v>
       </c>
       <c r="I10" t="n">
-        <v>147.548231538328</v>
+        <v>147.120712847298</v>
       </c>
       <c r="J10" t="n">
-        <v>74.78126390273361</v>
+        <v>73.77618141780607</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.15854752755993</v>
+        <v>62.96813801635155</v>
       </c>
       <c r="R10" t="n">
-        <v>165.4782475435391</v>
+        <v>164.8390373120294</v>
       </c>
       <c r="S10" t="n">
-        <v>219.4372145494936</v>
+        <v>219.1894656587123</v>
       </c>
       <c r="T10" t="n">
-        <v>226.8228402164323</v>
+        <v>226.7620984435229</v>
       </c>
       <c r="U10" t="n">
-        <v>286.304696387829</v>
+        <v>286.3039209609408</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="C11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="D11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="T11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="U11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="V11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="W11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="X11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="C13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="E13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="F13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="G13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="H13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="I13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="L13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="M13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="N13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="O13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="P13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="R13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="S13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="T13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="U13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="V13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="W13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="X13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.73643017661567</v>
+        <v>21.44762410938272</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810499</v>
+        <v>86.47183148750467</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>54.14548214544424</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810499</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="21">
@@ -28956,19 +28956,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>54.14548214544408</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>86.47183148750437</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="24">
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E25" t="n">
-        <v>54.14548214544421</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.48995205464296</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810501</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="C26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="D26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="E26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="F26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="G26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="H26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="T26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="U26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="V26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="W26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="X26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="C28" t="n">
-        <v>80.94829005148934</v>
+        <v>32.38510017950554</v>
       </c>
       <c r="D28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="E28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="F28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="G28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="S28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="T28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="U28" t="n">
-        <v>67.59706642718035</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="V28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="W28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="X28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.94829005148934</v>
+        <v>72.50264912780241</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>10.57924902585847</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.70958360951243</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y32" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L34" t="n">
-        <v>10.57924902585694</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859122</v>
       </c>
       <c r="R34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.7095836095125</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.14548214544473</v>
+        <v>46.72521440565311</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>46.72521440565379</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>45.39291458738663</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="42">
@@ -30615,22 +30615,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G43" t="n">
-        <v>54.14548214544487</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -30666,22 +30666,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>54.14548214544442</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="45">
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -30870,10 +30870,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>55.47778196371108</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>54.14548214544473</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5858030742889131</v>
+        <v>0.6174955635220558</v>
       </c>
       <c r="H8" t="n">
-        <v>5.999355734561333</v>
+        <v>6.323926439920255</v>
       </c>
       <c r="I8" t="n">
-        <v>22.58417302152334</v>
+        <v>23.80599771268408</v>
       </c>
       <c r="J8" t="n">
-        <v>49.71930367642869</v>
+        <v>52.40916408448013</v>
       </c>
       <c r="K8" t="n">
-        <v>74.51634781107839</v>
+        <v>78.54775128836877</v>
       </c>
       <c r="L8" t="n">
-        <v>92.44411864584774</v>
+        <v>97.4454311405069</v>
       </c>
       <c r="M8" t="n">
-        <v>102.8618940682332</v>
+        <v>108.4268178682923</v>
       </c>
       <c r="N8" t="n">
-        <v>104.5263070530566</v>
+        <v>110.1812771381493</v>
       </c>
       <c r="O8" t="n">
-        <v>98.70122773309619</v>
+        <v>104.0410556283769</v>
       </c>
       <c r="P8" t="n">
-        <v>84.23921433658863</v>
+        <v>88.79663390392609</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.26014173861692</v>
+        <v>66.68257403529245</v>
       </c>
       <c r="R8" t="n">
-        <v>36.79795236530097</v>
+        <v>38.78875569209237</v>
       </c>
       <c r="S8" t="n">
-        <v>13.34898755535862</v>
+        <v>14.07118015375886</v>
       </c>
       <c r="T8" t="n">
-        <v>2.564352957699719</v>
+        <v>2.703086829317801</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04686424594311304</v>
+        <v>0.04939964508176446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3134322769650541</v>
+        <v>0.3303892536335228</v>
       </c>
       <c r="H9" t="n">
-        <v>3.027095938057234</v>
+        <v>3.190864633776392</v>
       </c>
       <c r="I9" t="n">
-        <v>10.79141830778805</v>
+        <v>11.37524403957524</v>
       </c>
       <c r="J9" t="n">
-        <v>29.61247665835189</v>
+        <v>31.21453908999876</v>
       </c>
       <c r="K9" t="n">
-        <v>50.61243921501052</v>
+        <v>53.35061908344478</v>
       </c>
       <c r="L9" t="n">
-        <v>68.05467048752195</v>
+        <v>71.73649123301557</v>
       </c>
       <c r="M9" t="n">
-        <v>79.41659052750515</v>
+        <v>83.71310167723075</v>
       </c>
       <c r="N9" t="n">
-        <v>81.51851136732783</v>
+        <v>85.92873838251873</v>
       </c>
       <c r="O9" t="n">
-        <v>74.57351196720741</v>
+        <v>78.60800807832331</v>
       </c>
       <c r="P9" t="n">
-        <v>59.85181787063389</v>
+        <v>63.08985668726456</v>
       </c>
       <c r="Q9" t="n">
-        <v>40.00935521399533</v>
+        <v>42.17389841118442</v>
       </c>
       <c r="R9" t="n">
-        <v>19.46029523121626</v>
+        <v>20.51311523875505</v>
       </c>
       <c r="S9" t="n">
-        <v>5.821867074328962</v>
+        <v>6.1368354786753</v>
       </c>
       <c r="T9" t="n">
-        <v>1.263352028644231</v>
+        <v>1.33170054425091</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02062054453717462</v>
+        <v>0.02173613510746862</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2627710921349246</v>
+        <v>0.2769872517520043</v>
       </c>
       <c r="H10" t="n">
-        <v>2.336273891890512</v>
+        <v>2.462668474667822</v>
       </c>
       <c r="I10" t="n">
-        <v>7.902243388930279</v>
+        <v>8.329762079960277</v>
       </c>
       <c r="J10" t="n">
-        <v>18.57791621393917</v>
+        <v>19.5829986988667</v>
       </c>
       <c r="K10" t="n">
-        <v>30.52922324985759</v>
+        <v>32.18088252173285</v>
       </c>
       <c r="L10" t="n">
-        <v>39.06689491613233</v>
+        <v>41.18045013774799</v>
       </c>
       <c r="M10" t="n">
-        <v>41.19056310620457</v>
+        <v>43.41901074508917</v>
       </c>
       <c r="N10" t="n">
-        <v>40.21114358097444</v>
+        <v>42.38660371583174</v>
       </c>
       <c r="O10" t="n">
-        <v>37.14149945921644</v>
+        <v>39.15088900218331</v>
       </c>
       <c r="P10" t="n">
-        <v>31.78096917966395</v>
+        <v>33.5003490664424</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.00349572413446</v>
+        <v>23.19390523534284</v>
       </c>
       <c r="R10" t="n">
-        <v>11.81514383363033</v>
+        <v>12.45435406514012</v>
       </c>
       <c r="S10" t="n">
-        <v>4.579383487478638</v>
+        <v>4.827132378259928</v>
       </c>
       <c r="T10" t="n">
-        <v>1.122749211849223</v>
+        <v>1.183490984758564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01433296866190499</v>
+        <v>0.01510839555010934</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
         <v>38.45624955336179</v>
@@ -31765,16 +31765,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N11" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P11" t="n">
         <v>539.9786897190645</v>
@@ -31786,7 +31786,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T11" t="n">
         <v>16.4376645838976</v>
@@ -31835,7 +31835,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31847,16 +31847,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
         <v>256.4624964168761</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31941,7 +31941,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
         <v>29.35413767523479</v>
@@ -31950,7 +31950,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32105,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32154,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32172,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34366,7 +34366,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954005</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003809</v>
@@ -34384,7 +34384,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>473.0999946781689</v>
@@ -35410,19 +35410,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N11" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P11" t="n">
         <v>308.745693963795</v>
@@ -35431,7 +35431,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>560.2586790698755</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>201.4225882146024</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.46286753532162</v>
+        <v>47.17406146808867</v>
       </c>
       <c r="K13" t="n">
-        <v>190.1611895189648</v>
+        <v>194.8723834517318</v>
       </c>
       <c r="L13" t="n">
-        <v>294.7477217597227</v>
+        <v>299.4589156924897</v>
       </c>
       <c r="M13" t="n">
-        <v>320.354420823419</v>
+        <v>325.065614756186</v>
       </c>
       <c r="N13" t="n">
-        <v>318.6245751626402</v>
+        <v>323.3357690954072</v>
       </c>
       <c r="O13" t="n">
-        <v>279.4009178061227</v>
+        <v>284.1121117388897</v>
       </c>
       <c r="P13" t="n">
-        <v>217.7330111584229</v>
+        <v>222.4442050911899</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.61818563466973</v>
+        <v>76.32937956743675</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>112.9569980248056</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>815.2972824407321</v>
       </c>
       <c r="M26" t="n">
-        <v>777.9885808568771</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>773.7932122968732</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>96.28800022257863</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>370.4669557797105</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>398.3429630029962</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>395.5665297770524</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>312.9323792484982</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>285.6666547546228</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>129.103822147406</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>772.5791017950357</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.28800022257872</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>256.7572431538321</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>330.336621196055</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>398.3429630029963</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>353.0627138321523</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>285.6666547546229</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>129.1038221474062</v>
+        <v>125.3693751564848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687142</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38032,7 +38032,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
